--- a/src/Contacts.xlsx
+++ b/src/Contacts.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezzdi\Desktop\WhatsApp-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezzdi\Desktop\WhatsApp-Automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE2A5EC-E33A-462B-9561-F1687622656F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C50E2A-F11C-49D2-B743-B89FBD672653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8309D4E-9F09-4EB9-B392-75AB8B5B2231}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8309D4E-9F09-4EB9-B392-75AB8B5B2231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +24,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Ezzdin Atef</t>
+  </si>
+  <si>
+    <t>Flutter,Algorithms</t>
+  </si>
+  <si>
+    <t>ezzdin1125@gmail.com</t>
+  </si>
+  <si>
+    <t>Safeia Sherif</t>
+  </si>
+  <si>
+    <t>Flutter</t>
+  </si>
+  <si>
+    <t>safeia780@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +80,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFEEEEEE"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,34 +415,99 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AFE2B2-8DD8-4ABF-AF6B-062C5214A066}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>201015165113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2021651632132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20021036664</v>
-      </c>
+    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1275941172</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1152654185</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>